--- a/iot.xlsx
+++ b/iot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -25,31 +25,301 @@
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>"67d7ff7a1a38fc05a2f15768"</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>"67d7ffb8d16e1a15c87da533"</t>
-  </si>
-  <si>
-    <t>"67d7ffb8d16e1a15c87da534"</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>"67d8021c7f0c95553f42cb66"</t>
-  </si>
-  <si>
-    <t>"67d8021c7f0c95553f42cb67"</t>
-  </si>
-  <si>
-    <t>"67d802327f0c95553f42cb6a"</t>
-  </si>
-  <si>
-    <t>"67d802327f0c95553f42cb6b"</t>
+    <t>"67da777d844054390ec45973"</t>
+  </si>
+  <si>
+    <t>0.02, 0.59, 0.81</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45974"</t>
+  </si>
+  <si>
+    <t>0.03, -1.34, -0.16</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45975"</t>
+  </si>
+  <si>
+    <t>0.58, -0.18, -0.18</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45976"</t>
+  </si>
+  <si>
+    <t>0.9, -0.27, 0.1</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45977"</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45978"</t>
+  </si>
+  <si>
+    <t>0.92, 0.09, -0.34</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45979"</t>
+  </si>
+  <si>
+    <t>0.99, 0.19, -0.08</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4597a"</t>
+  </si>
+  <si>
+    <t>0.92, 0.26, -0.33</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4597b"</t>
+  </si>
+  <si>
+    <t>0.7, 0.71, 0.11</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4597c"</t>
+  </si>
+  <si>
+    <t>0.83, 0.39, 0.23</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4597d"</t>
+  </si>
+  <si>
+    <t>0.89, 0.23, -0.39</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4597e"</t>
+  </si>
+  <si>
+    <t>0.87, -0.51, -0.48</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4597f"</t>
+  </si>
+  <si>
+    <t>0.86, -0.4, -0.35</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45980"</t>
+  </si>
+  <si>
+    <t>0.96, 0.36, 0.06</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45981"</t>
+  </si>
+  <si>
+    <t>0.9, 0.22, -0.06</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45982"</t>
+  </si>
+  <si>
+    <t>0.6, 0.88, -0.19</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45983"</t>
+  </si>
+  <si>
+    <t>0.66, 0.85, 0.34</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45984"</t>
+  </si>
+  <si>
+    <t>0.77, 0.54, -0.0</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45985"</t>
+  </si>
+  <si>
+    <t>0.85, 0.54, 0.06</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45986"</t>
+  </si>
+  <si>
+    <t>0.93, 0.4, 0.22</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45987"</t>
+  </si>
+  <si>
+    <t>0.94, 0.15, 0.14</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45988"</t>
+  </si>
+  <si>
+    <t>1.01, -0.05, -0.01</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45989"</t>
+  </si>
+  <si>
+    <t>0.91, -0.18, -0.12</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4598a"</t>
+  </si>
+  <si>
+    <t>0.83, -0.33, -0.41</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4598b"</t>
+  </si>
+  <si>
+    <t>0.86, -0.09, -0.11</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4598c"</t>
+  </si>
+  <si>
+    <t>0.89, -0.33, -0.01</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4598d"</t>
+  </si>
+  <si>
+    <t>0.89, -0.43, -0.2</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4598e"</t>
+  </si>
+  <si>
+    <t>0.87, -0.49, -0.23</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4598f"</t>
+  </si>
+  <si>
+    <t>0.86, -0.35, -0.04</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45990"</t>
+  </si>
+  <si>
+    <t>0.76, -0.21, -0.16</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45991"</t>
+  </si>
+  <si>
+    <t>0.8, -0.7, 0.16</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45992"</t>
+  </si>
+  <si>
+    <t>0.67, -0.52, 0.1</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45993"</t>
+  </si>
+  <si>
+    <t>0.83, -0.83, 0.45</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45994"</t>
+  </si>
+  <si>
+    <t>0.79, -0.68, 0.31</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45995"</t>
+  </si>
+  <si>
+    <t>0.69, -0.54, 0.12</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45996"</t>
+  </si>
+  <si>
+    <t>0.78, -0.55, 0.3</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45997"</t>
+  </si>
+  <si>
+    <t>0.73, -0.62, 0.21</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45998"</t>
+  </si>
+  <si>
+    <t>0.77, -0.56, 0.2</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec45999"</t>
+  </si>
+  <si>
+    <t>0.76, -0.56, 0.25</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4599a"</t>
+  </si>
+  <si>
+    <t>0.78, -0.51, 0.24</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4599b"</t>
+  </si>
+  <si>
+    <t>0.77, -0.65, 0.23</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4599c"</t>
+  </si>
+  <si>
+    <t>0.79, -0.54, 0.3</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4599d"</t>
+  </si>
+  <si>
+    <t>0.78, -0.51, 0.26</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4599e"</t>
+  </si>
+  <si>
+    <t>0.79, -0.56, 0.24</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec4599f"</t>
+  </si>
+  <si>
+    <t>0.78, -0.6, 0.25</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec459a0"</t>
+  </si>
+  <si>
+    <t>0.81, -0.54, 0.31</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec459a1"</t>
+  </si>
+  <si>
+    <t>0.78, -0.47, 0.24</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec459a2"</t>
+  </si>
+  <si>
+    <t>0.49, -0.42, -0.0</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec459a3"</t>
+  </si>
+  <si>
+    <t>0.58, -0.77, 0.91</t>
+  </si>
+  <si>
+    <t>"67da777d844054390ec459a4"</t>
+  </si>
+  <si>
+    <t>0.78, -0.21, 0.66</t>
   </si>
 </sst>
 </file>
@@ -427,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D51"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -461,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>45292</v>
+        <v>45735.32637915509</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,80 +742,682 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>45292</v>
+        <v>45735.32674283565</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>45292</v>
+        <v>45735.326743854166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>45292</v>
+        <v>45735.32674547454</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>46023</v>
+        <v>45735.32674550926</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>45292</v>
+        <v>45735.32674668981</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>46024.17443287037</v>
+        <v>45735.32674775463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45735.326748865744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45735.32675057871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45735.32675168982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45735.32675283565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45735.32675400463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45735.326755648144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45735.326756828705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45735.32675797454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45735.32675905093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45735.326760717595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45735.32676186343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45735.32676298611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45735.32676413194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45735.32676581018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45735.32676693287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45735.32676806713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45735.326769189815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45735.3267708912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45735.32677201389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45735.32677313658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45735.32677425926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45735.326775995374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45735.326777118054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45735.326778206014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45735.32677935185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45735.32678105324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45735.32678216435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45735.32678329861</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45735.326784432866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45735.32678611111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45735.3267872338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45735.32678836805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45735.32678950232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45735.32679118056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45735.32679236111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45735.3267934375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45735.326794583336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45735.32679627315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45735.32679739583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45735.32679851852</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45735.3267996412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45735.32680138889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45735.32680303241</v>
       </c>
     </row>
   </sheetData>
